--- a/business/investment/market-size.xlsx
+++ b/business/investment/market-size.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\xampp\htdocs\projects\talambar_cdn\business\investment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674FD15A-4381-4F39-B612-BFC94D79ACEA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9505803-5270-4EAD-AA5C-1B47160198F4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="885" yWindow="1905" windowWidth="28800" windowHeight="11385" xr2:uid="{C0925052-1D72-4D4B-B1F6-A52D18756B59}"/>
+    <workbookView xWindow="3375" yWindow="2025" windowWidth="28800" windowHeight="11385" xr2:uid="{C0925052-1D72-4D4B-B1F6-A52D18756B59}"/>
   </bookViews>
   <sheets>
     <sheet name="Market Size" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Year</t>
   </si>
@@ -57,6 +57,18 @@
   </si>
   <si>
     <t>Market in million US dollars</t>
+  </si>
+  <si>
+    <t>2028*</t>
+  </si>
+  <si>
+    <t>2029*</t>
+  </si>
+  <si>
+    <t>2030*</t>
+  </si>
+  <si>
+    <t>2031*</t>
   </si>
 </sst>
 </file>
@@ -279,9 +291,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Market Size'!$A$2:$A$9</c:f>
+              <c:f>'Market Size'!$A$2:$A$13</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>2020</c:v>
                 </c:pt>
@@ -305,16 +317,28 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2027*</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2028*</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2029*</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2030*</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2031*</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Market Size'!$B$2:$B$9</c:f>
+              <c:f>'Market Size'!$B$2:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>7.4</c:v>
                 </c:pt>
@@ -338,6 +362,18 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>18.751000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21.414000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24.455000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27.928000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31.894000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -416,8 +452,6 @@
         <c:axId val="1018175119"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="20"/>
-          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1061,16 +1095,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>119062</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>90486</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>661987</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>71436</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1099,8 +1133,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8BA83DAC-599E-4A7D-957A-4B79799941C6}" name="Table1" displayName="Table1" ref="A1:B9" totalsRowShown="0">
-  <autoFilter ref="A1:B9" xr:uid="{59ECE4EA-269E-4E7B-A60A-59ECE0840802}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8BA83DAC-599E-4A7D-957A-4B79799941C6}" name="Table1" displayName="Table1" ref="A1:B13" totalsRowShown="0">
+  <autoFilter ref="A1:B13" xr:uid="{59ECE4EA-269E-4E7B-A60A-59ECE0840802}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{E45A0BDF-CF11-4ED1-BE9E-44317F001A4A}" name="Year"/>
     <tableColumn id="2" xr3:uid="{F55B7823-DD66-4EA7-896B-223D79833999}" name="Market in million US dollars" dataDxfId="0">
@@ -1408,10 +1442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF8147BF-3A16-440E-8872-B34EDE10F8D0}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1498,6 +1532,42 @@
         <v>18.751000000000001</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" ref="B10:B12" si="1">ROUNDUP(B9*1.142, 3)</f>
+        <v>21.414000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="1"/>
+        <v>24.455000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="1"/>
+        <v>27.928000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <f>ROUNDUP(B12*1.142, 3)</f>
+        <v>31.894000000000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
